--- a/Interstellar Imperium/data/campaign/rules.xlsx
+++ b/Interstellar Imperium/data/campaign/rules.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Program Files (x86)\Fractal Softworks\Starsector\mods\Interstellar Imperium\data\campaign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342951D-02FE-477D-98C4-B3025CFC4C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="405" windowWidth="37035" windowHeight="17160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="529">
   <si>
     <t>id</t>
   </si>
@@ -1888,11 +1894,22 @@
     <t>"Of course, $iiGrandchild. I know you are very busy." Justitia's soulless digital eyes stare through you as she smiles. "Thank you for indulging your grandmother with your time."
 "And try not to burn the Sector down before your next visit," Justitia says with a wink. The comm terminal fuzzes out to static.</t>
   </si>
+  <si>
+    <t>IITitanStrikeGoBackSelNex</t>
+  </si>
+  <si>
+    <t>$option = mktBombardGoBack
+FireBest DialogOptionSelected</t>
+  </si>
+  <si>
+    <t>$option == iiTitanStrikeGoBack
+!II_NotNex score:10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2371,12 +2388,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2430,14 +2444,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2475,7 +2492,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2547,7 +2564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2720,11 +2737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,663 +3486,657 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>526</v>
       </c>
       <c r="B52" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>528</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>108</v>
+        <v>527</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>158</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G56"/>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G58"/>
+      <c r="G57"/>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>121</v>
       </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>123</v>
       </c>
       <c r="B63" t="s">
         <v>131</v>
       </c>
+      <c r="C63" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G63"/>
-    </row>
-    <row r="65" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="G64"/>
+    </row>
+    <row r="66" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>184</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>450</v>
       </c>
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>185</v>
       </c>
-      <c r="B67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>190</v>
       </c>
-      <c r="B68" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>192</v>
       </c>
-      <c r="B69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>188</v>
       </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>245</v>
       </c>
-      <c r="B71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>246</v>
       </c>
-      <c r="B72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>197</v>
       </c>
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>198</v>
       </c>
-      <c r="B75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G75"/>
-    </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>201</v>
       </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G76"/>
-    </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>204</v>
       </c>
-      <c r="B77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G77"/>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>209</v>
       </c>
-      <c r="B78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G78"/>
-    </row>
-    <row r="79" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>212</v>
       </c>
-      <c r="B79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G79"/>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>218</v>
       </c>
-      <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G80"/>
-    </row>
-    <row r="81" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>228</v>
       </c>
-      <c r="B81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G81"/>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
         <v>233</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
         <v>233</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G85"/>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="86" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86"/>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>260</v>
-      </c>
-      <c r="B87" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>262</v>
       </c>
       <c r="B88" t="s">
         <v>258</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
         <v>258</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>268</v>
       </c>
-      <c r="B90" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>276</v>
-      </c>
-      <c r="B91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>269</v>
@@ -4134,1231 +4145,1252 @@
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>284</v>
       </c>
-      <c r="B94" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G94"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>275</v>
       </c>
-      <c r="B95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G95"/>
-    </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" t="s">
-        <v>258</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
         <v>258</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>294</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G97"/>
-    </row>
-    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>295</v>
       </c>
-      <c r="B98" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G98"/>
-    </row>
-    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>299</v>
       </c>
-      <c r="B99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G99"/>
-    </row>
-    <row r="100" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>298</v>
       </c>
-      <c r="B100" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>347</v>
-      </c>
-      <c r="B101" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="G101"/>
-    </row>
-    <row r="102" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>306</v>
-      </c>
-      <c r="B102" t="s">
-        <v>30</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="G102"/>
     </row>
     <row r="103" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>354</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>315</v>
       </c>
-      <c r="B104" t="s">
-        <v>30</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G104"/>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>356</v>
-      </c>
-      <c r="B105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>356</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G105"/>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>351</v>
       </c>
-      <c r="B106" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="G106"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>311</v>
-      </c>
-      <c r="B107" t="s">
-        <v>30</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G107"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>364</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G111"/>
-    </row>
-    <row r="112" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>322</v>
-      </c>
-      <c r="B112" t="s">
-        <v>322</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>327</v>
       </c>
       <c r="B113" t="s">
         <v>322</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="D113" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B114" t="s">
         <v>322</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
         <v>322</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>367</v>
+      </c>
+      <c r="B116" t="s">
+        <v>322</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>332</v>
-      </c>
-      <c r="B116" t="s">
-        <v>330</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>335</v>
       </c>
       <c r="B117" t="s">
         <v>330</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="B118" t="s">
         <v>330</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="B119" t="s">
         <v>330</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="B120" t="s">
         <v>330</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
         <v>330</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B122" t="s">
         <v>330</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="B123" t="s">
         <v>330</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="B124" t="s">
         <v>330</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="B125" t="s">
         <v>330</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>384</v>
+      </c>
+      <c r="B126" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>399</v>
-      </c>
-      <c r="B126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B127" t="s">
         <v>30</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>468</v>
+      <c r="E127" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>417</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>420</v>
       </c>
-      <c r="B128" t="s">
-        <v>30</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>469</v>
-      </c>
-      <c r="B129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>469</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>423</v>
-      </c>
-      <c r="B130" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="B131" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>439</v>
+      <c r="E132" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>434</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>436</v>
       </c>
-      <c r="B133" t="s">
-        <v>30</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>440</v>
-      </c>
-      <c r="B134" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>440</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>402</v>
-      </c>
-      <c r="B135" t="s">
-        <v>30</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="138" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>403</v>
       </c>
-      <c r="B137" t="s">
-        <v>30</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E138" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>452</v>
       </c>
-      <c r="B138" t="s">
-        <v>30</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E139" s="1" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>458</v>
-      </c>
-      <c r="B139" t="s">
-        <v>30</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>458</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>462</v>
       </c>
-      <c r="B140" t="s">
-        <v>30</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E141" s="1" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>412</v>
-      </c>
-      <c r="B141" t="s">
-        <v>30</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>521</v>
+      <c r="E142" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B143" t="s">
         <v>30</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B144" t="s">
         <v>30</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>476</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>404</v>
       </c>
-      <c r="B145" t="s">
-        <v>30</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E146" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>485</v>
       </c>
-      <c r="B146" t="s">
-        <v>30</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E147" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>489</v>
       </c>
-      <c r="B147" t="s">
-        <v>30</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>500</v>
-      </c>
-      <c r="B148" t="s">
-        <v>30</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>503</v>
+      <c r="E148" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B149" t="s">
         <v>30</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>504</v>
+      <c r="E149" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>502</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>490</v>
       </c>
-      <c r="B150" t="s">
-        <v>30</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>513</v>
-      </c>
-      <c r="B151" t="s">
-        <v>30</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>516</v>
+      <c r="E151" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B152" t="s">
         <v>30</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>514</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>491</v>
       </c>
-      <c r="B153" t="s">
-        <v>30</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>505</v>
-      </c>
-      <c r="B154" t="s">
-        <v>30</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>509</v>
+      <c r="E154" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>506</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="157" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>333</v>
       </c>
-      <c r="B156" t="s">
-        <v>30</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G156"/>
-    </row>
-    <row r="157" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>374</v>
-      </c>
-      <c r="B157" t="s">
-        <v>30</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B158" t="s">
         <v>30</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>524</v>
+        <v>377</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="G158"/>
     </row>
     <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>387</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G159"/>
+    </row>
+    <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>393</v>
       </c>
-      <c r="B159" t="s">
-        <v>30</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G159"/>
-    </row>
-    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>390</v>
-      </c>
-      <c r="B160" t="s">
-        <v>30</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G160"/>
+    </row>
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>390</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
